--- a/mapeventProject/media/EventsData.xlsx
+++ b/mapeventProject/media/EventsData.xlsx
@@ -12,14 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="5205"/>
   </bookViews>
   <sheets>
-    <sheet name="EventsData" sheetId="1" r:id="rId1"/>
+    <sheet name="EventsData (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="58">
+  <si>
+    <t>Test</t>
+  </si>
   <si>
     <t>Testing with some food and edits</t>
   </si>
@@ -27,21 +30,147 @@
     <t>Testing</t>
   </si>
   <si>
+    <t>pune</t>
+  </si>
+  <si>
     <t>bar-15</t>
   </si>
   <si>
+    <t>Being Puneri Flea 3.0</t>
+  </si>
+  <si>
+    <t>84/36, N Main Rd, Koregaon Park Annexe, Mundhwa, Pune, Maharashtra</t>
+  </si>
+  <si>
+    <t>List of Jiaa Promotion upcoming events. Dance Events by Jiaa Promotion. Events - Being Puneri Flea 3.0, Being Puneri Flea 2.0, Being Puneri Flea (Property | AuRead more on AllEvents.in</t>
+  </si>
+  <si>
+    <t>music-15</t>
+  </si>
+  <si>
+    <t>Pawna Lakeside Camping</t>
+  </si>
+  <si>
+    <t>GQ5R+CFR, Paud Rd, Paud Road, Bhusari Colony, Kothrud, Pune, Maharashtra</t>
+  </si>
+  <si>
+    <t>Bookings: Whatsapp on 9096893351 Price: 999/- per person (Without travel) Inclusions: Evening Snacks Welcome Drink Mouth-watering Starters Unlimited Dinner ( Veg , Non-veg , Jain) Tent Stay</t>
+  </si>
+  <si>
+    <t>art-gallery-15</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>pimpri chinchwad</t>
+  </si>
+  <si>
+    <t>testmonialBox</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>kharadi event</t>
+  </si>
+  <si>
+    <t>testmonialBoxrr</t>
+  </si>
+  <si>
+    <t>Python django course event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wadivali village chembur camp mumbai-74 </t>
+  </si>
+  <si>
+    <t>Python is the most participants language you will se so many live projects in this event</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Php full stack intership classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thane West Mumbai Maharashtra India </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This are the clases will tech you everything </t>
+  </si>
+  <si>
+    <t>Russ India Tour | Delhi</t>
+  </si>
+  <si>
+    <t>JLN Stadium Gate No. 2, Delhi</t>
+  </si>
+  <si>
+    <t>During the 2010s, Russ Vitale -- a rapper, singer, songwriter, and producer -- emerged from the Atlanta-area underground with dozens of independent singles and albums, all of which were made freely available as downloads. Signing with the majors in 2017, he issued his mainstream breakthrough, the platinum-certified Top Ten album There's Really a Wolf. He also cracked the Top Five of the Billboard 200 with 2018's Zoo and 2020's Shake the Snow Globe, before releasing the companion albums Chomp and Chomp 2. Inspired by 50 Cent and Eminem as well as the classic rock he absorbed as a youngster, the New Jersey-born Vitale gradually learned to play several instruments, including guitar, which was taught to him by his father. After a short period of enrollment at Kennesaw State, Vitale established Diemon, a collective and label. His prolific output switched between swaggering modern hip-hop anthems and woozy R&amp;B-oriented ballads, with relaxed melodic hooks the common element in both modes. He gradually gained a signi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyara NH-08 bardoli gujarat </t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>test3456</t>
+  </si>
+  <si>
     <t>mumbai</t>
   </si>
   <si>
+    <t>D Album Tour featuring Dino James</t>
+  </si>
+  <si>
+    <t>Bidhannagar, Kolkata, West Bengal 700091,India</t>
+  </si>
+  <si>
+    <t>Dino James is a popular Indian rapper, singer, composer, and lyricist. He has a self-titled Youtube channel where he usually uploads music videos and the fact is that most of the lyrics of his songs are based on his real-life experiences and struggle faced by him.  His Albums are ruling the Charts in India in Hip Hop and Rap.  Come and experience the stellar performance   16th September  Open till 2 am</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>chembur</t>
+  </si>
+  <si>
+    <t>wakad</t>
+  </si>
+  <si>
+    <t>Delhi Jewellery &amp; Gem Fair test 21</t>
+  </si>
+  <si>
+    <t>India Gate Cir, New Delhi, Delhi</t>
+  </si>
+  <si>
+    <t>The 2022 edition of Delhi Jewellery &amp; Gem Fair is on the 17th, 18th and 19th of September 2022 at New Delhi in New Delhi (India). Connect with attendees and schedule meetings.</t>
+  </si>
+  <si>
+    <t>Delhi Jewellery &amp; Gem Fairvipul 21</t>
+  </si>
+  <si>
+    <t>Delhi Jewellery &amp; Gem Fairvipul 21 1:13pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi James bond </t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
     <t>event_name</t>
   </si>
   <si>
+    <t>event_details</t>
+  </si>
+  <si>
     <t>event_address</t>
   </si>
   <si>
-    <t>event_details</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -54,14 +183,23 @@
     <t>city</t>
   </si>
   <si>
-    <t>Test with shona</t>
+    <t>event_datefrom</t>
+  </si>
+  <si>
+    <t>event_datetill</t>
+  </si>
+  <si>
+    <t>time_from</t>
+  </si>
+  <si>
+    <t>time_till</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +333,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="33">
@@ -378,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -493,6 +642,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -538,8 +726,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -861,58 +1057,4040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45160</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45167</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J2">
+        <v>73.7644454</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45196</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>18.5336727</v>
+      </c>
+      <c r="J3">
+        <v>73.931783100000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45159</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>18.5038889</v>
+      </c>
+      <c r="J4">
+        <v>73.807672999999994</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45158</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J5">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45168</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>18.550517500000002</v>
+      </c>
+      <c r="J6">
+        <v>73.942494499999995</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>19.0626319</v>
+      </c>
+      <c r="J7">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44802</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>19.194329400000001</v>
+      </c>
+      <c r="J8">
+        <v>72.970177899999996</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45164</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>30.110657400000001</v>
+      </c>
+      <c r="J9">
+        <v>78.284075900000005</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <v>21.122002299999998</v>
+      </c>
+      <c r="J10">
+        <v>73.113598800000005</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J11">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44850</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>22.577965450000001</v>
+      </c>
+      <c r="J12">
+        <v>88.434868761778503</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44834</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J13">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J14">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>19.0626319</v>
+      </c>
+      <c r="J15">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44835</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
         <v>18.602249499999999</v>
       </c>
-      <c r="E2">
+      <c r="J16">
         <v>73.7644454</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J17">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J18">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J19">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>30.3169</v>
+      </c>
+      <c r="J20">
+        <v>78.033000000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D21" s="1">
+        <v>45160</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45167</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H21" t="s">
         <v>3</v>
+      </c>
+      <c r="I21">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J21">
+        <v>73.7644454</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45196</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>18.5336727</v>
+      </c>
+      <c r="J22">
+        <v>73.931783100000004</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45159</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>18.5038889</v>
+      </c>
+      <c r="J23">
+        <v>73.807672999999994</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45158</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J24">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45168</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>18.550517500000002</v>
+      </c>
+      <c r="J25">
+        <v>73.942494499999995</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <v>19.0626319</v>
+      </c>
+      <c r="J26">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44802</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>19.194329400000001</v>
+      </c>
+      <c r="J27">
+        <v>72.970177899999996</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45164</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>30.110657400000001</v>
+      </c>
+      <c r="J28">
+        <v>78.284075900000005</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>21.122002299999998</v>
+      </c>
+      <c r="J29">
+        <v>73.113598800000005</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J30">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44850</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>22.577965450000001</v>
+      </c>
+      <c r="J31">
+        <v>88.434868761778503</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44834</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J32">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J33">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34">
+        <v>19.0626319</v>
+      </c>
+      <c r="J34">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44835</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J35">
+        <v>73.7644454</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J36">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J37">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J38">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39">
+        <v>30.3169</v>
+      </c>
+      <c r="J39">
+        <v>78.033000000000001</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45160</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45167</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J40">
+        <v>73.7644454</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45196</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>18.5336727</v>
+      </c>
+      <c r="J41">
+        <v>73.931783100000004</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45159</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>18.5038889</v>
+      </c>
+      <c r="J42">
+        <v>73.807672999999994</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45158</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J43">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45168</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>18.550517500000002</v>
+      </c>
+      <c r="J44">
+        <v>73.942494499999995</v>
+      </c>
+      <c r="K44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45">
+        <v>19.0626319</v>
+      </c>
+      <c r="J45">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44802</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46">
+        <v>19.194329400000001</v>
+      </c>
+      <c r="J46">
+        <v>72.970177899999996</v>
+      </c>
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45164</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47">
+        <v>30.110657400000001</v>
+      </c>
+      <c r="J47">
+        <v>78.284075900000005</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48">
+        <v>21.122002299999998</v>
+      </c>
+      <c r="J48">
+        <v>73.113598800000005</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J49">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44850</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50">
+        <v>22.577965450000001</v>
+      </c>
+      <c r="J50">
+        <v>88.434868761778503</v>
+      </c>
+      <c r="K50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44834</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J51">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J52">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53">
+        <v>19.0626319</v>
+      </c>
+      <c r="J53">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44835</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J54">
+        <v>73.7644454</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J55">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J56">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J57">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58">
+        <v>30.3169</v>
+      </c>
+      <c r="J58">
+        <v>78.033000000000001</v>
+      </c>
+      <c r="K58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45160</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45167</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J59">
+        <v>73.7644454</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45196</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>18.5336727</v>
+      </c>
+      <c r="J60">
+        <v>73.931783100000004</v>
+      </c>
+      <c r="K60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45159</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>18.5038889</v>
+      </c>
+      <c r="J61">
+        <v>73.807672999999994</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45158</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J62">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45168</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>18.550517500000002</v>
+      </c>
+      <c r="J63">
+        <v>73.942494499999995</v>
+      </c>
+      <c r="K63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64">
+        <v>19.0626319</v>
+      </c>
+      <c r="J64">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44802</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65">
+        <v>19.194329400000001</v>
+      </c>
+      <c r="J65">
+        <v>72.970177899999996</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45164</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66">
+        <v>30.110657400000001</v>
+      </c>
+      <c r="J66">
+        <v>78.284075900000005</v>
+      </c>
+      <c r="K66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67">
+        <v>21.122002299999998</v>
+      </c>
+      <c r="J67">
+        <v>73.113598800000005</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J68">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44850</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69">
+        <v>22.577965450000001</v>
+      </c>
+      <c r="J69">
+        <v>88.434868761778503</v>
+      </c>
+      <c r="K69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44834</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J70">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J71">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72">
+        <v>19.0626319</v>
+      </c>
+      <c r="J72">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44835</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="H73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J73">
+        <v>73.7644454</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J74">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J75">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J76">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77">
+        <v>30.3169</v>
+      </c>
+      <c r="J77">
+        <v>78.033000000000001</v>
+      </c>
+      <c r="K77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45160</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45167</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J78">
+        <v>73.7644454</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45196</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>18.5336727</v>
+      </c>
+      <c r="J79">
+        <v>73.931783100000004</v>
+      </c>
+      <c r="K79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45159</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>18.5038889</v>
+      </c>
+      <c r="J80">
+        <v>73.807672999999994</v>
+      </c>
+      <c r="K80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45158</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J81">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45168</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>18.550517500000002</v>
+      </c>
+      <c r="J82">
+        <v>73.942494499999995</v>
+      </c>
+      <c r="K82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83">
+        <v>19.0626319</v>
+      </c>
+      <c r="J83">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44802</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84">
+        <v>19.194329400000001</v>
+      </c>
+      <c r="J84">
+        <v>72.970177899999996</v>
+      </c>
+      <c r="K84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45164</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85">
+        <v>30.110657400000001</v>
+      </c>
+      <c r="J85">
+        <v>78.284075900000005</v>
+      </c>
+      <c r="K85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86">
+        <v>21.122002299999998</v>
+      </c>
+      <c r="J86">
+        <v>73.113598800000005</v>
+      </c>
+      <c r="K86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J87">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44850</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88">
+        <v>22.577965450000001</v>
+      </c>
+      <c r="J88">
+        <v>88.434868761778503</v>
+      </c>
+      <c r="K88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44834</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J89">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J90">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="H91" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91">
+        <v>19.0626319</v>
+      </c>
+      <c r="J91">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44835</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J92">
+        <v>73.7644454</v>
+      </c>
+      <c r="K92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J93">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J94">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J95">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F96" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96">
+        <v>30.3169</v>
+      </c>
+      <c r="J96">
+        <v>78.033000000000001</v>
+      </c>
+      <c r="K96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45160</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45167</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J97">
+        <v>73.7644454</v>
+      </c>
+      <c r="K97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45196</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>18.5336727</v>
+      </c>
+      <c r="J98">
+        <v>73.931783100000004</v>
+      </c>
+      <c r="K98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45159</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45162</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>18.5038889</v>
+      </c>
+      <c r="J99">
+        <v>73.807672999999994</v>
+      </c>
+      <c r="K99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45157</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45158</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J100">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45166</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45168</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>18.550517500000002</v>
+      </c>
+      <c r="J101">
+        <v>73.942494499999995</v>
+      </c>
+      <c r="K101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="1">
+        <v>45162</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102">
+        <v>19.0626319</v>
+      </c>
+      <c r="J102">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="1">
+        <v>44802</v>
+      </c>
+      <c r="E103" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103">
+        <v>19.194329400000001</v>
+      </c>
+      <c r="J103">
+        <v>72.970177899999996</v>
+      </c>
+      <c r="K103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45164</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104">
+        <v>30.110657400000001</v>
+      </c>
+      <c r="J104">
+        <v>78.284075900000005</v>
+      </c>
+      <c r="K104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E105" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105">
+        <v>21.122002299999998</v>
+      </c>
+      <c r="J105">
+        <v>73.113598800000005</v>
+      </c>
+      <c r="K105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="H106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J106">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="1">
+        <v>44850</v>
+      </c>
+      <c r="E107" s="1">
+        <v>44825</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107">
+        <v>22.577965450000001</v>
+      </c>
+      <c r="J107">
+        <v>88.434868761778503</v>
+      </c>
+      <c r="K107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1">
+        <v>44834</v>
+      </c>
+      <c r="E108" s="1">
+        <v>44827</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="H108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108">
+        <v>18.627928799999999</v>
+      </c>
+      <c r="J108">
+        <v>73.800982899999994</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E109" s="1">
+        <v>44833</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="H109" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109">
+        <v>19.078545099999999</v>
+      </c>
+      <c r="J109">
+        <v>72.878175999999996</v>
+      </c>
+      <c r="K109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.88750000000000007</v>
+      </c>
+      <c r="H110" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110">
+        <v>19.0626319</v>
+      </c>
+      <c r="J110">
+        <v>72.901139900000004</v>
+      </c>
+      <c r="K110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44835</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="H111" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111">
+        <v>18.602249499999999</v>
+      </c>
+      <c r="J111">
+        <v>73.7644454</v>
+      </c>
+      <c r="K111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J112">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J113">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114">
+        <v>30.316500000000001</v>
+      </c>
+      <c r="J114">
+        <v>78.032200000000003</v>
+      </c>
+      <c r="K114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="1">
+        <v>44825</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44826</v>
+      </c>
+      <c r="F115" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115">
+        <v>30.3169</v>
+      </c>
+      <c r="J115">
+        <v>78.033000000000001</v>
+      </c>
+      <c r="K115" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
